--- a/data/long_dif/P23_8-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_8-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,7 +627,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -606,27 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20,06%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18,12%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,49; 31,51</t>
+          <t>19,84; 32,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 14,57</t>
+          <t>8,69; 14,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,61; 19,55</t>
+          <t>13,22; 22,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,45</t>
+          <t>12,84; 19,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,58; 24,81</t>
+          <t>11,04; 16,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,55; 14,67</t>
+          <t>15,05; 23,09</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17,09; 23,96</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10,5; 14,46</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14,93; 21,47</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>61,51%</t>
+          <t>61,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>69,83%</t>
+          <t>69,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,57%</t>
+          <t>63,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>68,27%</t>
+          <t>64,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,07%</t>
+          <t>68,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,03%</t>
+          <t>60,68%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>63,2%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>69,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>61,98%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,24; 67,26</t>
+          <t>55,2; 67,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,07; 74,63</t>
+          <t>62,19; 74,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60,13; 68,88</t>
+          <t>57,07; 70,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64,1; 72,01</t>
+          <t>60,23; 68,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,9; 66,42</t>
+          <t>64,09; 71,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,35; 72,11</t>
+          <t>55,17; 65,46</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>59,06; 66,56</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>65,54; 72,22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>58,01; 66,59</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19,9%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,96; 17,62</t>
+          <t>10,65; 17,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,87; 25,09</t>
+          <t>15,02; 27,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 22,89</t>
+          <t>14,74; 23,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,43; 21,59</t>
+          <t>15,74; 23,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,38; 19,34</t>
+          <t>15,29; 21,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,06; 22,37</t>
+          <t>17,01; 25,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14,52; 19,56</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 21,89</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16,8; 23,16</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 27,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,63; 22,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,17; 27,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,52; 20,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,67; 25,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,07; 20,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>61,19%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>65,91%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>59,28%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>67,35%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,23%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>66,63%</t>
+          <t>17,44%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,77%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54,46; 68,01</t>
+          <t>17,14; 28,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,43; 70,99</t>
+          <t>12,99; 23,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,68; 64,83</t>
+          <t>11,84; 22,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>62,48; 71,44</t>
+          <t>18,03; 27,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,01; 64,55</t>
+          <t>12,98; 20,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>63,18; 70,03</t>
+          <t>13,74; 21,74</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18,73; 26,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13,83; 19,96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13,9; 20,31</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>61,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>66,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>60,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>58,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>67,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>58,77%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>59,86%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>66,82%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>59,41%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,66; 22,94</t>
+          <t>55,06; 67,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,67; 21,57</t>
+          <t>60,66; 72,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,09; 22,9</t>
+          <t>51,89; 66,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,82; 19,98</t>
+          <t>53,16; 63,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,34; 21,02</t>
+          <t>62,26; 72,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,9; 19,72</t>
+          <t>53,47; 64,43</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>55,44; 63,94</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>63,09; 70,61</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>54,81; 63,89</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>23,79%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18,19%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16,39%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23,83%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,09; 37,54</t>
+          <t>13,03; 23,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,41; 34,05</t>
+          <t>12,59; 20,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,47; 31,37</t>
+          <t>18,32; 31,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,13; 20,06</t>
+          <t>15,25; 23,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,62; 30,41</t>
+          <t>13,24; 20,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,6; 24,81</t>
+          <t>19,16; 28,89</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14,95; 21,54</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 19,54</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20,02; 28,26</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>57,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>67,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>67,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>62,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>43,97; 69,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>45,45; 66,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,76; 76,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>58,97; 75,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>53,3; 69,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>54,16; 68,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>17,47%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17,51%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,42; 37,33</t>
+          <t>15,15; 35,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,31; 33,05</t>
+          <t>13,67; 34,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,14; 19,09</t>
+          <t>6,88; 28,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,76; 27,67</t>
+          <t>13,55; 31,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,06; 24,71</t>
+          <t>7,47; 20,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,95; 27,57</t>
+          <t>11,08; 26,22</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>16,58; 30,06</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>12,18; 25,7</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10,26; 23,69</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>55,19%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>56,31%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>50,15%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>67,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>54,95%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>61,34%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>61,81%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>52,55%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>20,12; 27,98</t>
+          <t>38,62; 67,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,87</t>
+          <t>44,84; 66,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,22; 22,05</t>
+          <t>30,51; 66,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,79; 16,94</t>
+          <t>57,62; 77,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>19,0; 23,97</t>
+          <t>58,76; 75,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,01; 16,48</t>
+          <t>42,66; 65,92</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>50,64; 68,16</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>54,19; 68,13</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>42,09; 61,88</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>60,87%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>62,77%</t>
+          <t>34,34%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>61,83%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>67,26%</t>
+          <t>27,58%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>16,14%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20,67%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>56,56; 64,88</t>
+          <t>10,69; 44,73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>62,74; 70,1</t>
+          <t>14,22; 31,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>59,75; 66,24</t>
+          <t>19,05; 58,52</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>65,13; 70,41</t>
+          <t>5,82; 17,98</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>59,16; 64,58</t>
+          <t>13,2; 27,21</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>65,18; 69,56</t>
+          <t>17,41; 40,06</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>10,88; 29,92</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 26,61</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>22,05; 43,92</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>16,06; 22,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>15,91; 20,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,27; 19,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,93; 18,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,18; 20,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>23,29%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>17,95%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>14,77%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>17,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>19,97; 27,83</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>12,46; 18,06</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>13,88; 20,08</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>16,47; 21,86</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>12,42; 16,51</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 21,08</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>18,85; 23,68</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>13,16; 16,55</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>15,44; 19,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>60,63%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>66,85%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>60,44%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>62,67%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>67,79%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>59,28%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>61,66%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>67,33%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>59,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>56,74; 64,9</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>62,58; 70,29</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>55,58; 65,17</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>59,29; 65,74</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>65,02; 70,71</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>55,75; 63,06</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>58,94; 64,35</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>65,11; 69,59</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>56,96; 62,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>16,09%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>18,38%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>13,31; 19,94</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>15,51; 22,03</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>19,15; 27,96</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 20,82</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>15,61; 20,31</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>19,75; 25,99</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 19,42</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>16,12; 20,13</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>20,27; 25,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
